--- a/filteredGoldmsi-behavioural_covariates.241.xlsx
+++ b/filteredGoldmsi-behavioural_covariates.241.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/massimolumaca/neuroMET/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B4724E-A7D7-9848-B599-B3CB04A089D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2870ACB-5F8E-8E47-BFD2-6B4FE9327D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="466">
   <si>
     <t>gen</t>
   </si>
@@ -1416,732 +1416,6 @@
   </si>
   <si>
     <t>stato_5</t>
-  </si>
-  <si>
-    <t>DoB</t>
-  </si>
-  <si>
-    <t>290586</t>
-  </si>
-  <si>
-    <t>300697</t>
-  </si>
-  <si>
-    <t>231096</t>
-  </si>
-  <si>
-    <t>110795</t>
-  </si>
-  <si>
-    <t>130495</t>
-  </si>
-  <si>
-    <t>280792</t>
-  </si>
-  <si>
-    <t>280995</t>
-  </si>
-  <si>
-    <t>170491</t>
-  </si>
-  <si>
-    <t>161294</t>
-  </si>
-  <si>
-    <t>061096</t>
-  </si>
-  <si>
-    <t>151295</t>
-  </si>
-  <si>
-    <t>060100</t>
-  </si>
-  <si>
-    <t>160698</t>
-  </si>
-  <si>
-    <t>260881</t>
-  </si>
-  <si>
-    <t>030895</t>
-  </si>
-  <si>
-    <t>080395</t>
-  </si>
-  <si>
-    <t>040495</t>
-  </si>
-  <si>
-    <t>101296</t>
-  </si>
-  <si>
-    <t>181093</t>
-  </si>
-  <si>
-    <t>180294</t>
-  </si>
-  <si>
-    <t>020792</t>
-  </si>
-  <si>
-    <t>020197</t>
-  </si>
-  <si>
-    <t>040696</t>
-  </si>
-  <si>
-    <t>110497</t>
-  </si>
-  <si>
-    <t>161086</t>
-  </si>
-  <si>
-    <t>230396</t>
-  </si>
-  <si>
-    <t>080197</t>
-  </si>
-  <si>
-    <t>180394</t>
-  </si>
-  <si>
-    <t>090495</t>
-  </si>
-  <si>
-    <t>160795</t>
-  </si>
-  <si>
-    <t>030894</t>
-  </si>
-  <si>
-    <t>110196</t>
-  </si>
-  <si>
-    <t>210199</t>
-  </si>
-  <si>
-    <t>200396</t>
-  </si>
-  <si>
-    <t>190495</t>
-  </si>
-  <si>
-    <t>270295</t>
-  </si>
-  <si>
-    <t>200796</t>
-  </si>
-  <si>
-    <t>140501</t>
-  </si>
-  <si>
-    <t>010599</t>
-  </si>
-  <si>
-    <t>150189</t>
-  </si>
-  <si>
-    <t>010396</t>
-  </si>
-  <si>
-    <t>121094</t>
-  </si>
-  <si>
-    <t>151092</t>
-  </si>
-  <si>
-    <t>220597</t>
-  </si>
-  <si>
-    <t>140499</t>
-  </si>
-  <si>
-    <t>070997</t>
-  </si>
-  <si>
-    <t>230892</t>
-  </si>
-  <si>
-    <t>041000</t>
-  </si>
-  <si>
-    <t>180896</t>
-  </si>
-  <si>
-    <t>300695</t>
-  </si>
-  <si>
-    <t>061189</t>
-  </si>
-  <si>
-    <t>270696</t>
-  </si>
-  <si>
-    <t>301195</t>
-  </si>
-  <si>
-    <t>021198</t>
-  </si>
-  <si>
-    <t>180598</t>
-  </si>
-  <si>
-    <t>140897</t>
-  </si>
-  <si>
-    <t>070396</t>
-  </si>
-  <si>
-    <t>230798</t>
-  </si>
-  <si>
-    <t>060888</t>
-  </si>
-  <si>
-    <t>211295</t>
-  </si>
-  <si>
-    <t>140494</t>
-  </si>
-  <si>
-    <t>090691</t>
-  </si>
-  <si>
-    <t>060197</t>
-  </si>
-  <si>
-    <t>231294</t>
-  </si>
-  <si>
-    <t>210996</t>
-  </si>
-  <si>
-    <t>200301</t>
-  </si>
-  <si>
-    <t>150400</t>
-  </si>
-  <si>
-    <t>070794</t>
-  </si>
-  <si>
-    <t>260894</t>
-  </si>
-  <si>
-    <t>061100</t>
-  </si>
-  <si>
-    <t>221096</t>
-  </si>
-  <si>
-    <t>240894</t>
-  </si>
-  <si>
-    <t>290194</t>
-  </si>
-  <si>
-    <t>060894</t>
-  </si>
-  <si>
-    <t>241094</t>
-  </si>
-  <si>
-    <t>141196</t>
-  </si>
-  <si>
-    <t>121292</t>
-  </si>
-  <si>
-    <t>130301</t>
-  </si>
-  <si>
-    <t>081093</t>
-  </si>
-  <si>
-    <t>180699</t>
-  </si>
-  <si>
-    <t>180797</t>
-  </si>
-  <si>
-    <t>131296</t>
-  </si>
-  <si>
-    <t>140594</t>
-  </si>
-  <si>
-    <t>300799</t>
-  </si>
-  <si>
-    <t>261293</t>
-  </si>
-  <si>
-    <t>150194</t>
-  </si>
-  <si>
-    <t>050698</t>
-  </si>
-  <si>
-    <t>230297</t>
-  </si>
-  <si>
-    <t>080597</t>
-  </si>
-  <si>
-    <t>150888</t>
-  </si>
-  <si>
-    <t>090497</t>
-  </si>
-  <si>
-    <t>221193</t>
-  </si>
-  <si>
-    <t>170899</t>
-  </si>
-  <si>
-    <t>050192</t>
-  </si>
-  <si>
-    <t>220991</t>
-  </si>
-  <si>
-    <t>121285</t>
-  </si>
-  <si>
-    <t>300897</t>
-  </si>
-  <si>
-    <t>210495</t>
-  </si>
-  <si>
-    <t>160695</t>
-  </si>
-  <si>
-    <t>300395</t>
-  </si>
-  <si>
-    <t>140283</t>
-  </si>
-  <si>
-    <t>050997</t>
-  </si>
-  <si>
-    <t>260197</t>
-  </si>
-  <si>
-    <t>160892</t>
-  </si>
-  <si>
-    <t>081093</t>
-  </si>
-  <si>
-    <t>030197</t>
-  </si>
-  <si>
-    <t>240294</t>
-  </si>
-  <si>
-    <t>131297</t>
-  </si>
-  <si>
-    <t>240685</t>
-  </si>
-  <si>
-    <t>230598</t>
-  </si>
-  <si>
-    <t>150896</t>
-  </si>
-  <si>
-    <t>020999</t>
-  </si>
-  <si>
-    <t>270679</t>
-  </si>
-  <si>
-    <t>051094</t>
-  </si>
-  <si>
-    <t>090292</t>
-  </si>
-  <si>
-    <t>201192</t>
-  </si>
-  <si>
-    <t>010893</t>
-  </si>
-  <si>
-    <t>120791</t>
-  </si>
-  <si>
-    <t>300975</t>
-  </si>
-  <si>
-    <t>110795</t>
-  </si>
-  <si>
-    <t>040686</t>
-  </si>
-  <si>
-    <t>70993</t>
-  </si>
-  <si>
-    <t>290686</t>
-  </si>
-  <si>
-    <t>220598</t>
-  </si>
-  <si>
-    <t>051298</t>
-  </si>
-  <si>
-    <t>090893</t>
-  </si>
-  <si>
-    <t>100798</t>
-  </si>
-  <si>
-    <t>190195</t>
-  </si>
-  <si>
-    <t>160777</t>
-  </si>
-  <si>
-    <t>260498</t>
-  </si>
-  <si>
-    <t>071196</t>
-  </si>
-  <si>
-    <t>290798</t>
-  </si>
-  <si>
-    <t>290394</t>
-  </si>
-  <si>
-    <t>161094</t>
-  </si>
-  <si>
-    <t>050190</t>
-  </si>
-  <si>
-    <t>240393</t>
-  </si>
-  <si>
-    <t>020596</t>
-  </si>
-  <si>
-    <t>130695</t>
-  </si>
-  <si>
-    <t>131295</t>
-  </si>
-  <si>
-    <t>220994</t>
-  </si>
-  <si>
-    <t>040692</t>
-  </si>
-  <si>
-    <t>160499</t>
-  </si>
-  <si>
-    <t>230896</t>
-  </si>
-  <si>
-    <t>230193</t>
-  </si>
-  <si>
-    <t>120397</t>
-  </si>
-  <si>
-    <t>290498</t>
-  </si>
-  <si>
-    <t>170893</t>
-  </si>
-  <si>
-    <t>160793</t>
-  </si>
-  <si>
-    <t>111097</t>
-  </si>
-  <si>
-    <t>050897</t>
-  </si>
-  <si>
-    <t>050599</t>
-  </si>
-  <si>
-    <t>070692</t>
-  </si>
-  <si>
-    <t>250497</t>
-  </si>
-  <si>
-    <t>231091</t>
-  </si>
-  <si>
-    <t>150595</t>
-  </si>
-  <si>
-    <t>270797</t>
-  </si>
-  <si>
-    <t>101293</t>
-  </si>
-  <si>
-    <t>100798</t>
-  </si>
-  <si>
-    <t>051197</t>
-  </si>
-  <si>
-    <t>260896</t>
-  </si>
-  <si>
-    <t>310800</t>
-  </si>
-  <si>
-    <t>080891</t>
-  </si>
-  <si>
-    <t>250895</t>
-  </si>
-  <si>
-    <t>031294</t>
-  </si>
-  <si>
-    <t>060496</t>
-  </si>
-  <si>
-    <t>150199</t>
-  </si>
-  <si>
-    <t>200693</t>
-  </si>
-  <si>
-    <t>171198</t>
-  </si>
-  <si>
-    <t>291194</t>
-  </si>
-  <si>
-    <t>050993</t>
-  </si>
-  <si>
-    <t>291285</t>
-  </si>
-  <si>
-    <t>240798</t>
-  </si>
-  <si>
-    <t>250996</t>
-  </si>
-  <si>
-    <t>100173</t>
-  </si>
-  <si>
-    <t>050592</t>
-  </si>
-  <si>
-    <t>240295</t>
-  </si>
-  <si>
-    <t>161298</t>
-  </si>
-  <si>
-    <t>040595</t>
-  </si>
-  <si>
-    <t>250696</t>
-  </si>
-  <si>
-    <t>030797</t>
-  </si>
-  <si>
-    <t>040671</t>
-  </si>
-  <si>
-    <t>190191</t>
-  </si>
-  <si>
-    <t>180901</t>
-  </si>
-  <si>
-    <t>180495</t>
-  </si>
-  <si>
-    <t>140398</t>
-  </si>
-  <si>
-    <t>051096</t>
-  </si>
-  <si>
-    <t>110298</t>
-  </si>
-  <si>
-    <t>240190</t>
-  </si>
-  <si>
-    <t>010292</t>
-  </si>
-  <si>
-    <t>060982</t>
-  </si>
-  <si>
-    <t>111094</t>
-  </si>
-  <si>
-    <t>170397</t>
-  </si>
-  <si>
-    <t>280498</t>
-  </si>
-  <si>
-    <t>231197</t>
-  </si>
-  <si>
-    <t>210100</t>
-  </si>
-  <si>
-    <t>060895</t>
-  </si>
-  <si>
-    <t>131299</t>
-  </si>
-  <si>
-    <t>180373</t>
-  </si>
-  <si>
-    <t>251094</t>
-  </si>
-  <si>
-    <t>301097</t>
-  </si>
-  <si>
-    <t>010499</t>
-  </si>
-  <si>
-    <t>010391</t>
-  </si>
-  <si>
-    <t>150291</t>
-  </si>
-  <si>
-    <t>260498</t>
-  </si>
-  <si>
-    <t>180596</t>
-  </si>
-  <si>
-    <t>051095</t>
-  </si>
-  <si>
-    <t>060296</t>
-  </si>
-  <si>
-    <t>050395</t>
-  </si>
-  <si>
-    <t>090496</t>
-  </si>
-  <si>
-    <t>020499</t>
-  </si>
-  <si>
-    <t>140599</t>
-  </si>
-  <si>
-    <t>070994</t>
-  </si>
-  <si>
-    <t>250900</t>
-  </si>
-  <si>
-    <t>050196</t>
-  </si>
-  <si>
-    <t>180794</t>
-  </si>
-  <si>
-    <t>090197</t>
-  </si>
-  <si>
-    <t>221099</t>
-  </si>
-  <si>
-    <t>290495</t>
-  </si>
-  <si>
-    <t>200394</t>
-  </si>
-  <si>
-    <t>120499</t>
-  </si>
-  <si>
-    <t>020800</t>
-  </si>
-  <si>
-    <t>310898</t>
-  </si>
-  <si>
-    <t>311098</t>
-  </si>
-  <si>
-    <t>080598</t>
-  </si>
-  <si>
-    <t>040995</t>
-  </si>
-  <si>
-    <t>230495</t>
-  </si>
-  <si>
-    <t>240297</t>
-  </si>
-  <si>
-    <t>120700</t>
-  </si>
-  <si>
-    <t>311093</t>
-  </si>
-  <si>
-    <t>100898</t>
-  </si>
-  <si>
-    <t>260992</t>
-  </si>
-  <si>
-    <t>130895</t>
-  </si>
-  <si>
-    <t>210399</t>
-  </si>
-  <si>
-    <t>311297</t>
-  </si>
-  <si>
-    <t>211297</t>
-  </si>
-  <si>
-    <t>060299</t>
-  </si>
-  <si>
-    <t>300199</t>
-  </si>
-  <si>
-    <t>071099</t>
-  </si>
-  <si>
-    <t>160297</t>
-  </si>
-  <si>
-    <t>160797</t>
-  </si>
-  <si>
-    <t>230597</t>
   </si>
   <si>
     <t>msi34</t>
@@ -2499,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW242"/>
+  <dimension ref="A1:AV242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AW1" sqref="AW1:AW1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2515,10 +1789,9 @@
     <col min="14" max="42" width="6.33203125" customWidth="1"/>
     <col min="43" max="43" width="48" customWidth="1"/>
     <col min="44" max="48" width="7.5" customWidth="1"/>
-    <col min="49" max="49" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2631,7 +1904,7 @@
         <v>224</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>707</v>
+        <v>465</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>225</v>
@@ -2663,11 +1936,8 @@
       <c r="AV1" t="s">
         <v>464</v>
       </c>
-      <c r="AW1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2806,11 +2076,8 @@
       <c r="AV2">
         <v>0</v>
       </c>
-      <c r="AW2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2955,11 +2222,8 @@
       <c r="AV3">
         <v>0</v>
       </c>
-      <c r="AW3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3104,11 +2368,8 @@
       <c r="AV4">
         <v>0</v>
       </c>
-      <c r="AW4" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3253,11 +2514,8 @@
       <c r="AV5">
         <v>0</v>
       </c>
-      <c r="AW5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3402,11 +2660,8 @@
       <c r="AV6">
         <v>0</v>
       </c>
-      <c r="AW6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3551,11 +2806,8 @@
       <c r="AV7">
         <v>0</v>
       </c>
-      <c r="AW7" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -3700,11 +2952,8 @@
       <c r="AV8">
         <v>0</v>
       </c>
-      <c r="AW8" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3843,11 +3092,8 @@
       <c r="AV9">
         <v>0</v>
       </c>
-      <c r="AW9" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3992,11 +3238,8 @@
       <c r="AV10">
         <v>0</v>
       </c>
-      <c r="AW10" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4141,11 +3384,8 @@
       <c r="AV11">
         <v>0</v>
       </c>
-      <c r="AW11" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4290,11 +3530,8 @@
       <c r="AV12">
         <v>0</v>
       </c>
-      <c r="AW12" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4439,11 +3676,8 @@
       <c r="AV13">
         <v>0</v>
       </c>
-      <c r="AW13" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -4588,11 +3822,8 @@
       <c r="AV14">
         <v>0</v>
       </c>
-      <c r="AW14" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -4731,11 +3962,8 @@
       <c r="AV15">
         <v>0</v>
       </c>
-      <c r="AW15" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -4880,11 +4108,8 @@
       <c r="AV16">
         <v>0</v>
       </c>
-      <c r="AW16" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -5029,11 +4254,8 @@
       <c r="AV17">
         <v>0</v>
       </c>
-      <c r="AW17" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -5178,11 +4400,8 @@
       <c r="AV18">
         <v>0</v>
       </c>
-      <c r="AW18" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -5327,11 +4546,8 @@
       <c r="AV19">
         <v>0</v>
       </c>
-      <c r="AW19" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -5476,11 +4692,8 @@
       <c r="AV20">
         <v>0</v>
       </c>
-      <c r="AW20" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -5619,11 +4832,8 @@
       <c r="AV21">
         <v>0</v>
       </c>
-      <c r="AW21" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -5762,11 +4972,8 @@
       <c r="AV22">
         <v>0</v>
       </c>
-      <c r="AW22" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -5911,11 +5118,8 @@
       <c r="AV23">
         <v>0</v>
       </c>
-      <c r="AW23" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -6060,11 +5264,8 @@
       <c r="AV24">
         <v>0</v>
       </c>
-      <c r="AW24" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -6209,11 +5410,8 @@
       <c r="AV25">
         <v>0</v>
       </c>
-      <c r="AW25" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -6358,11 +5556,8 @@
       <c r="AV26">
         <v>0</v>
       </c>
-      <c r="AW26" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -6507,11 +5702,8 @@
       <c r="AV27">
         <v>0</v>
       </c>
-      <c r="AW27" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -6656,11 +5848,8 @@
       <c r="AV28">
         <v>0</v>
       </c>
-      <c r="AW28" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -6805,11 +5994,8 @@
       <c r="AV29">
         <v>0</v>
       </c>
-      <c r="AW29" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -6954,11 +6140,8 @@
       <c r="AV30">
         <v>0</v>
       </c>
-      <c r="AW30" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -7103,11 +6286,8 @@
       <c r="AV31">
         <v>0</v>
       </c>
-      <c r="AW31" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -7246,11 +6426,8 @@
       <c r="AV32">
         <v>0</v>
       </c>
-      <c r="AW32" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -7395,11 +6572,8 @@
       <c r="AV33">
         <v>0</v>
       </c>
-      <c r="AW33" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -7538,11 +6712,8 @@
       <c r="AV34">
         <v>0</v>
       </c>
-      <c r="AW34" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
@@ -7687,11 +6858,8 @@
       <c r="AV35">
         <v>0</v>
       </c>
-      <c r="AW35" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -7836,11 +7004,8 @@
       <c r="AV36">
         <v>0</v>
       </c>
-      <c r="AW36" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -7985,11 +7150,8 @@
       <c r="AV37">
         <v>0</v>
       </c>
-      <c r="AW37" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2</v>
       </c>
@@ -8128,11 +7290,8 @@
       <c r="AV38">
         <v>0</v>
       </c>
-      <c r="AW38" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -8277,11 +7436,8 @@
       <c r="AV39">
         <v>0</v>
       </c>
-      <c r="AW39" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -8426,11 +7582,8 @@
       <c r="AV40">
         <v>0</v>
       </c>
-      <c r="AW40" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -8569,11 +7722,8 @@
       <c r="AV41">
         <v>0</v>
       </c>
-      <c r="AW41" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2</v>
       </c>
@@ -8718,11 +7868,8 @@
       <c r="AV42">
         <v>0</v>
       </c>
-      <c r="AW42" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2</v>
       </c>
@@ -8867,11 +8014,8 @@
       <c r="AV43">
         <v>0</v>
       </c>
-      <c r="AW43" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -9010,11 +8154,8 @@
       <c r="AV44">
         <v>0</v>
       </c>
-      <c r="AW44" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -9159,11 +8300,8 @@
       <c r="AV45">
         <v>0</v>
       </c>
-      <c r="AW45" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -9308,11 +8446,8 @@
       <c r="AV46">
         <v>0</v>
       </c>
-      <c r="AW46" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -9457,11 +8592,8 @@
       <c r="AV47">
         <v>0</v>
       </c>
-      <c r="AW47" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2</v>
       </c>
@@ -9600,11 +8732,8 @@
       <c r="AV48">
         <v>0</v>
       </c>
-      <c r="AW48" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1</v>
       </c>
@@ -9743,11 +8872,8 @@
       <c r="AV49">
         <v>0</v>
       </c>
-      <c r="AW49" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2</v>
       </c>
@@ -9892,11 +9018,8 @@
       <c r="AV50">
         <v>0</v>
       </c>
-      <c r="AW50" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2</v>
       </c>
@@ -10041,11 +9164,8 @@
       <c r="AV51">
         <v>0</v>
       </c>
-      <c r="AW51" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2</v>
       </c>
@@ -10184,11 +9304,8 @@
       <c r="AV52">
         <v>0</v>
       </c>
-      <c r="AW52" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1</v>
       </c>
@@ -10333,11 +9450,8 @@
       <c r="AV53">
         <v>0</v>
       </c>
-      <c r="AW53" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1</v>
       </c>
@@ -10482,11 +9596,8 @@
       <c r="AV54">
         <v>0</v>
       </c>
-      <c r="AW54" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2</v>
       </c>
@@ -10631,11 +9742,8 @@
       <c r="AV55">
         <v>0</v>
       </c>
-      <c r="AW55" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2</v>
       </c>
@@ -10780,11 +9888,8 @@
       <c r="AV56">
         <v>0</v>
       </c>
-      <c r="AW56" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
@@ -10929,11 +10034,8 @@
       <c r="AV57">
         <v>0</v>
       </c>
-      <c r="AW57" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2</v>
       </c>
@@ -11078,11 +10180,8 @@
       <c r="AV58">
         <v>0</v>
       </c>
-      <c r="AW58" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -11227,11 +10326,8 @@
       <c r="AV59">
         <v>0</v>
       </c>
-      <c r="AW59" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1</v>
       </c>
@@ -11376,11 +10472,8 @@
       <c r="AV60">
         <v>0</v>
       </c>
-      <c r="AW60" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1</v>
       </c>
@@ -11525,11 +10618,8 @@
       <c r="AV61">
         <v>0</v>
       </c>
-      <c r="AW61" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2</v>
       </c>
@@ -11674,11 +10764,8 @@
       <c r="AV62">
         <v>0</v>
       </c>
-      <c r="AW62" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
@@ -11823,11 +10910,8 @@
       <c r="AV63">
         <v>0</v>
       </c>
-      <c r="AW63" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1</v>
       </c>
@@ -11972,11 +11056,8 @@
       <c r="AV64">
         <v>0</v>
       </c>
-      <c r="AW64" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="65" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1</v>
       </c>
@@ -12121,11 +11202,8 @@
       <c r="AV65">
         <v>0</v>
       </c>
-      <c r="AW65" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="66" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2</v>
       </c>
@@ -12270,11 +11348,8 @@
       <c r="AV66">
         <v>0</v>
       </c>
-      <c r="AW66" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="67" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2</v>
       </c>
@@ -12419,11 +11494,8 @@
       <c r="AV67">
         <v>0</v>
       </c>
-      <c r="AW67" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="68" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1</v>
       </c>
@@ -12562,11 +11634,8 @@
       <c r="AV68">
         <v>0</v>
       </c>
-      <c r="AW68" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1</v>
       </c>
@@ -12711,11 +11780,8 @@
       <c r="AV69">
         <v>0</v>
       </c>
-      <c r="AW69" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="70" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1</v>
       </c>
@@ -12854,11 +11920,8 @@
       <c r="AV70">
         <v>0</v>
       </c>
-      <c r="AW70" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="71" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2</v>
       </c>
@@ -13003,11 +12066,8 @@
       <c r="AV71">
         <v>0</v>
       </c>
-      <c r="AW71" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="72" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1</v>
       </c>
@@ -13152,11 +12212,8 @@
       <c r="AV72">
         <v>0</v>
       </c>
-      <c r="AW72" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="73" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1</v>
       </c>
@@ -13301,11 +12358,8 @@
       <c r="AV73">
         <v>0</v>
       </c>
-      <c r="AW73" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2</v>
       </c>
@@ -13450,11 +12504,8 @@
       <c r="AV74">
         <v>0</v>
       </c>
-      <c r="AW74" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="75" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -13599,11 +12650,8 @@
       <c r="AV75">
         <v>0</v>
       </c>
-      <c r="AW75" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="76" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1</v>
       </c>
@@ -13748,11 +12796,8 @@
       <c r="AV76">
         <v>0</v>
       </c>
-      <c r="AW76" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1</v>
       </c>
@@ -13897,11 +12942,8 @@
       <c r="AV77">
         <v>0</v>
       </c>
-      <c r="AW77" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="78" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1</v>
       </c>
@@ -14046,11 +13088,8 @@
       <c r="AV78">
         <v>0</v>
       </c>
-      <c r="AW78" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="79" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2</v>
       </c>
@@ -14195,11 +13234,8 @@
       <c r="AV79">
         <v>0</v>
       </c>
-      <c r="AW79" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2</v>
       </c>
@@ -14344,11 +13380,8 @@
       <c r="AV80">
         <v>0</v>
       </c>
-      <c r="AW80" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="81" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1</v>
       </c>
@@ -14493,11 +13526,8 @@
       <c r="AV81">
         <v>0</v>
       </c>
-      <c r="AW81" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="82" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1</v>
       </c>
@@ -14636,11 +13666,8 @@
       <c r="AV82">
         <v>0</v>
       </c>
-      <c r="AW82" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="83" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2</v>
       </c>
@@ -14785,11 +13812,8 @@
       <c r="AV83">
         <v>0</v>
       </c>
-      <c r="AW83" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="84" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1</v>
       </c>
@@ -14934,11 +13958,8 @@
       <c r="AV84">
         <v>0</v>
       </c>
-      <c r="AW84" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="85" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2</v>
       </c>
@@ -15083,11 +14104,8 @@
       <c r="AV85">
         <v>0</v>
       </c>
-      <c r="AW85" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="86" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1</v>
       </c>
@@ -15232,11 +14250,8 @@
       <c r="AV86">
         <v>0</v>
       </c>
-      <c r="AW86" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="87" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2</v>
       </c>
@@ -15381,11 +14396,8 @@
       <c r="AV87">
         <v>0</v>
       </c>
-      <c r="AW87" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="88" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2</v>
       </c>
@@ -15530,11 +14542,8 @@
       <c r="AV88">
         <v>0</v>
       </c>
-      <c r="AW88" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="89" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1</v>
       </c>
@@ -15679,11 +14688,8 @@
       <c r="AV89">
         <v>0</v>
       </c>
-      <c r="AW89" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="90" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2</v>
       </c>
@@ -15828,11 +14834,8 @@
       <c r="AV90">
         <v>0</v>
       </c>
-      <c r="AW90" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="91" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2</v>
       </c>
@@ -15977,11 +14980,8 @@
       <c r="AV91">
         <v>0</v>
       </c>
-      <c r="AW91" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="92" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1</v>
       </c>
@@ -16126,11 +15126,8 @@
       <c r="AV92">
         <v>0</v>
       </c>
-      <c r="AW92" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="93" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1</v>
       </c>
@@ -16275,11 +15272,8 @@
       <c r="AV93">
         <v>0</v>
       </c>
-      <c r="AW93" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="94" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1</v>
       </c>
@@ -16424,11 +15418,8 @@
       <c r="AV94">
         <v>0</v>
       </c>
-      <c r="AW94" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="95" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1</v>
       </c>
@@ -16567,11 +15558,8 @@
       <c r="AV95">
         <v>0</v>
       </c>
-      <c r="AW95" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="96" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1</v>
       </c>
@@ -16716,11 +15704,8 @@
       <c r="AV96">
         <v>0</v>
       </c>
-      <c r="AW96" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="97" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2</v>
       </c>
@@ -16865,11 +15850,8 @@
       <c r="AV97">
         <v>0</v>
       </c>
-      <c r="AW97" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="98" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2</v>
       </c>
@@ -17014,11 +15996,8 @@
       <c r="AV98">
         <v>0</v>
       </c>
-      <c r="AW98" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="99" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1</v>
       </c>
@@ -17163,11 +16142,8 @@
       <c r="AV99">
         <v>0</v>
       </c>
-      <c r="AW99" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="100" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2</v>
       </c>
@@ -17312,11 +16288,8 @@
       <c r="AV100">
         <v>0</v>
       </c>
-      <c r="AW100" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="101" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1</v>
       </c>
@@ -17461,11 +16434,8 @@
       <c r="AV101">
         <v>0</v>
       </c>
-      <c r="AW101" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="102" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2</v>
       </c>
@@ -17604,11 +16574,8 @@
       <c r="AV102">
         <v>0</v>
       </c>
-      <c r="AW102" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="103" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1</v>
       </c>
@@ -17747,11 +16714,8 @@
       <c r="AV103">
         <v>0</v>
       </c>
-      <c r="AW103" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="104" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1</v>
       </c>
@@ -17896,11 +16860,8 @@
       <c r="AV104">
         <v>0</v>
       </c>
-      <c r="AW104" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="105" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1</v>
       </c>
@@ -18045,11 +17006,8 @@
       <c r="AV105">
         <v>0</v>
       </c>
-      <c r="AW105" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="106" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1</v>
       </c>
@@ -18194,11 +17152,8 @@
       <c r="AV106">
         <v>0</v>
       </c>
-      <c r="AW106" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="107" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1</v>
       </c>
@@ -18343,11 +17298,8 @@
       <c r="AV107">
         <v>0</v>
       </c>
-      <c r="AW107" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="108" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1</v>
       </c>
@@ -18492,11 +17444,8 @@
       <c r="AV108">
         <v>0</v>
       </c>
-      <c r="AW108" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="109" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2</v>
       </c>
@@ -18641,11 +17590,8 @@
       <c r="AV109">
         <v>0</v>
       </c>
-      <c r="AW109" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="110" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1</v>
       </c>
@@ -18784,11 +17730,8 @@
       <c r="AV110">
         <v>0</v>
       </c>
-      <c r="AW110" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="111" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1</v>
       </c>
@@ -18933,11 +17876,8 @@
       <c r="AV111">
         <v>0</v>
       </c>
-      <c r="AW111" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="112" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1</v>
       </c>
@@ -19082,11 +18022,8 @@
       <c r="AV112">
         <v>0</v>
       </c>
-      <c r="AW112" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="113" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1</v>
       </c>
@@ -19231,11 +18168,8 @@
       <c r="AV113">
         <v>0</v>
       </c>
-      <c r="AW113" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="114" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1</v>
       </c>
@@ -19374,11 +18308,8 @@
       <c r="AV114">
         <v>0</v>
       </c>
-      <c r="AW114" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="115" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2</v>
       </c>
@@ -19523,11 +18454,8 @@
       <c r="AV115">
         <v>0</v>
       </c>
-      <c r="AW115" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="116" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2</v>
       </c>
@@ -19672,11 +18600,8 @@
       <c r="AV116">
         <v>0</v>
       </c>
-      <c r="AW116" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="117" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2</v>
       </c>
@@ -19821,11 +18746,8 @@
       <c r="AV117">
         <v>0</v>
       </c>
-      <c r="AW117" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="118" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1</v>
       </c>
@@ -19970,11 +18892,8 @@
       <c r="AV118">
         <v>0</v>
       </c>
-      <c r="AW118" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="119" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2</v>
       </c>
@@ -20119,11 +19038,8 @@
       <c r="AV119">
         <v>0</v>
       </c>
-      <c r="AW119" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="120" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2</v>
       </c>
@@ -20268,11 +19184,8 @@
       <c r="AV120">
         <v>0</v>
       </c>
-      <c r="AW120" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="121" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2</v>
       </c>
@@ -20417,11 +19330,8 @@
       <c r="AV121">
         <v>0</v>
       </c>
-      <c r="AW121" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="122" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2</v>
       </c>
@@ -20566,11 +19476,8 @@
       <c r="AV122">
         <v>0</v>
       </c>
-      <c r="AW122" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="123" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2</v>
       </c>
@@ -20715,11 +19622,8 @@
       <c r="AV123">
         <v>0</v>
       </c>
-      <c r="AW123" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="124" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2</v>
       </c>
@@ -20858,11 +19762,8 @@
       <c r="AV124">
         <v>0</v>
       </c>
-      <c r="AW124" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="125" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2</v>
       </c>
@@ -21007,11 +19908,8 @@
       <c r="AV125">
         <v>0</v>
       </c>
-      <c r="AW125" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="126" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1</v>
       </c>
@@ -21150,11 +20048,8 @@
       <c r="AV126">
         <v>0</v>
       </c>
-      <c r="AW126" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="127" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2</v>
       </c>
@@ -21299,11 +20194,8 @@
       <c r="AV127">
         <v>0</v>
       </c>
-      <c r="AW127" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="128" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1</v>
       </c>
@@ -21448,11 +20340,8 @@
       <c r="AV128">
         <v>0</v>
       </c>
-      <c r="AW128" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="129" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1</v>
       </c>
@@ -21597,11 +20486,8 @@
       <c r="AV129">
         <v>0</v>
       </c>
-      <c r="AW129" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="130" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2</v>
       </c>
@@ -21740,11 +20626,8 @@
       <c r="AV130">
         <v>0</v>
       </c>
-      <c r="AW130" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="131" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2</v>
       </c>
@@ -21889,11 +20772,8 @@
       <c r="AV131">
         <v>0</v>
       </c>
-      <c r="AW131" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="132" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1</v>
       </c>
@@ -22032,11 +20912,8 @@
       <c r="AV132">
         <v>0</v>
       </c>
-      <c r="AW132" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="133" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2</v>
       </c>
@@ -22181,11 +21058,8 @@
       <c r="AV133">
         <v>0</v>
       </c>
-      <c r="AW133" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="134" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1</v>
       </c>
@@ -22330,11 +21204,8 @@
       <c r="AV134">
         <v>0</v>
       </c>
-      <c r="AW134" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="135" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2</v>
       </c>
@@ -22479,11 +21350,8 @@
       <c r="AV135">
         <v>0</v>
       </c>
-      <c r="AW135" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="136" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2</v>
       </c>
@@ -22628,11 +21496,8 @@
       <c r="AV136">
         <v>0</v>
       </c>
-      <c r="AW136" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="137" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1</v>
       </c>
@@ -22777,11 +21642,8 @@
       <c r="AV137">
         <v>0</v>
       </c>
-      <c r="AW137" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="138" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1</v>
       </c>
@@ -22926,11 +21788,8 @@
       <c r="AV138">
         <v>0</v>
       </c>
-      <c r="AW138" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="139" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2</v>
       </c>
@@ -23069,11 +21928,8 @@
       <c r="AV139">
         <v>0</v>
       </c>
-      <c r="AW139" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="140" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2</v>
       </c>
@@ -23218,11 +22074,8 @@
       <c r="AV140">
         <v>0</v>
       </c>
-      <c r="AW140" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="141" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1</v>
       </c>
@@ -23367,11 +22220,8 @@
       <c r="AV141">
         <v>0</v>
       </c>
-      <c r="AW141" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="142" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1</v>
       </c>
@@ -23516,11 +22366,8 @@
       <c r="AV142">
         <v>0</v>
       </c>
-      <c r="AW142" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="143" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2</v>
       </c>
@@ -23665,11 +22512,8 @@
       <c r="AV143">
         <v>0</v>
       </c>
-      <c r="AW143" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="144" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1</v>
       </c>
@@ -23814,11 +22658,8 @@
       <c r="AV144">
         <v>0</v>
       </c>
-      <c r="AW144" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="145" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2</v>
       </c>
@@ -23963,11 +22804,8 @@
       <c r="AV145">
         <v>0</v>
       </c>
-      <c r="AW145" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="146" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2</v>
       </c>
@@ -24112,11 +22950,8 @@
       <c r="AV146">
         <v>0</v>
       </c>
-      <c r="AW146" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="147" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1</v>
       </c>
@@ -24261,11 +23096,8 @@
       <c r="AV147">
         <v>0</v>
       </c>
-      <c r="AW147" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="148" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2</v>
       </c>
@@ -24404,11 +23236,8 @@
       <c r="AV148">
         <v>0</v>
       </c>
-      <c r="AW148" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="149" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2</v>
       </c>
@@ -24553,11 +23382,8 @@
       <c r="AV149">
         <v>0</v>
       </c>
-      <c r="AW149" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="150" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1</v>
       </c>
@@ -24702,11 +23528,8 @@
       <c r="AV150">
         <v>0</v>
       </c>
-      <c r="AW150" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="151" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1</v>
       </c>
@@ -24851,11 +23674,8 @@
       <c r="AV151">
         <v>0</v>
       </c>
-      <c r="AW151" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="152" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1</v>
       </c>
@@ -25000,11 +23820,8 @@
       <c r="AV152">
         <v>0</v>
       </c>
-      <c r="AW152" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="153" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1</v>
       </c>
@@ -25149,11 +23966,8 @@
       <c r="AV153">
         <v>0</v>
       </c>
-      <c r="AW153" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="154" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2</v>
       </c>
@@ -25298,11 +24112,8 @@
       <c r="AV154">
         <v>0</v>
       </c>
-      <c r="AW154" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="155" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2</v>
       </c>
@@ -25447,11 +24258,8 @@
       <c r="AV155">
         <v>0</v>
       </c>
-      <c r="AW155" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="156" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2</v>
       </c>
@@ -25596,11 +24404,8 @@
       <c r="AV156">
         <v>0</v>
       </c>
-      <c r="AW156" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="157" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2</v>
       </c>
@@ -25745,11 +24550,8 @@
       <c r="AV157">
         <v>0</v>
       </c>
-      <c r="AW157" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="158" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1</v>
       </c>
@@ -25894,11 +24696,8 @@
       <c r="AV158">
         <v>0</v>
       </c>
-      <c r="AW158" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="159" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2</v>
       </c>
@@ -26043,11 +24842,8 @@
       <c r="AV159">
         <v>0</v>
       </c>
-      <c r="AW159" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="160" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1</v>
       </c>
@@ -26192,11 +24988,8 @@
       <c r="AV160">
         <v>0</v>
       </c>
-      <c r="AW160" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="161" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2</v>
       </c>
@@ -26341,11 +25134,8 @@
       <c r="AV161">
         <v>0</v>
       </c>
-      <c r="AW161" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="162" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2</v>
       </c>
@@ -26490,11 +25280,8 @@
       <c r="AV162">
         <v>0</v>
       </c>
-      <c r="AW162" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="163" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2</v>
       </c>
@@ -26633,11 +25420,8 @@
       <c r="AV163">
         <v>0</v>
       </c>
-      <c r="AW163" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="164" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2</v>
       </c>
@@ -26782,11 +25566,8 @@
       <c r="AV164">
         <v>0</v>
       </c>
-      <c r="AW164" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="165" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2</v>
       </c>
@@ -26925,11 +25706,8 @@
       <c r="AV165">
         <v>0</v>
       </c>
-      <c r="AW165" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="166" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2</v>
       </c>
@@ -27068,11 +25846,8 @@
       <c r="AV166">
         <v>0</v>
       </c>
-      <c r="AW166" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="167" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2</v>
       </c>
@@ -27217,11 +25992,8 @@
       <c r="AV167">
         <v>0</v>
       </c>
-      <c r="AW167" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="168" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2</v>
       </c>
@@ -27366,11 +26138,8 @@
       <c r="AV168">
         <v>0</v>
       </c>
-      <c r="AW168" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="169" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1</v>
       </c>
@@ -27515,11 +26284,8 @@
       <c r="AV169">
         <v>0</v>
       </c>
-      <c r="AW169" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="170" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1</v>
       </c>
@@ -27664,11 +26430,8 @@
       <c r="AV170">
         <v>0</v>
       </c>
-      <c r="AW170" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="171" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2</v>
       </c>
@@ -27807,11 +26570,8 @@
       <c r="AV171">
         <v>0</v>
       </c>
-      <c r="AW171" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="172" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1</v>
       </c>
@@ -27956,11 +26716,8 @@
       <c r="AV172">
         <v>0</v>
       </c>
-      <c r="AW172" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="173" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1</v>
       </c>
@@ -28105,11 +26862,8 @@
       <c r="AV173">
         <v>0</v>
       </c>
-      <c r="AW173" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="174" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1</v>
       </c>
@@ -28254,11 +27008,8 @@
       <c r="AV174">
         <v>0</v>
       </c>
-      <c r="AW174" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="175" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1</v>
       </c>
@@ -28397,11 +27148,8 @@
       <c r="AV175">
         <v>0</v>
       </c>
-      <c r="AW175" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="176" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2</v>
       </c>
@@ -28540,11 +27288,8 @@
       <c r="AV176">
         <v>0</v>
       </c>
-      <c r="AW176" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="177" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2</v>
       </c>
@@ -28689,11 +27434,8 @@
       <c r="AV177">
         <v>0</v>
       </c>
-      <c r="AW177" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="178" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1</v>
       </c>
@@ -28838,11 +27580,8 @@
       <c r="AV178">
         <v>0</v>
       </c>
-      <c r="AW178" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="179" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1</v>
       </c>
@@ -28981,11 +27720,8 @@
       <c r="AV179">
         <v>0</v>
       </c>
-      <c r="AW179" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="180" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1</v>
       </c>
@@ -29130,11 +27866,8 @@
       <c r="AV180">
         <v>0</v>
       </c>
-      <c r="AW180" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="181" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1</v>
       </c>
@@ -29279,11 +28012,8 @@
       <c r="AV181">
         <v>0</v>
       </c>
-      <c r="AW181" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="182" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1</v>
       </c>
@@ -29422,11 +28152,8 @@
       <c r="AV182">
         <v>0</v>
       </c>
-      <c r="AW182" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="183" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1</v>
       </c>
@@ -29565,11 +28292,8 @@
       <c r="AV183">
         <v>0</v>
       </c>
-      <c r="AW183" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="184" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2</v>
       </c>
@@ -29708,11 +28432,8 @@
       <c r="AV184">
         <v>0</v>
       </c>
-      <c r="AW184" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="185" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1</v>
       </c>
@@ -29851,11 +28572,8 @@
       <c r="AV185">
         <v>0</v>
       </c>
-      <c r="AW185" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="186" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1</v>
       </c>
@@ -30000,11 +28718,8 @@
       <c r="AV186">
         <v>0</v>
       </c>
-      <c r="AW186" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="187" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1</v>
       </c>
@@ -30149,11 +28864,8 @@
       <c r="AV187">
         <v>0</v>
       </c>
-      <c r="AW187" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="188" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2</v>
       </c>
@@ -30298,11 +29010,8 @@
       <c r="AV188">
         <v>0</v>
       </c>
-      <c r="AW188" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="189" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1</v>
       </c>
@@ -30441,11 +29150,8 @@
       <c r="AV189">
         <v>0</v>
       </c>
-      <c r="AW189" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="190" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2</v>
       </c>
@@ -30590,11 +29296,8 @@
       <c r="AV190">
         <v>0</v>
       </c>
-      <c r="AW190" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="191" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2</v>
       </c>
@@ -30733,11 +29436,8 @@
       <c r="AV191">
         <v>0</v>
       </c>
-      <c r="AW191" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="192" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2</v>
       </c>
@@ -30882,11 +29582,8 @@
       <c r="AV192">
         <v>0</v>
       </c>
-      <c r="AW192" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="193" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1</v>
       </c>
@@ -31031,11 +29728,8 @@
       <c r="AV193">
         <v>0</v>
       </c>
-      <c r="AW193" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="194" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2</v>
       </c>
@@ -31180,11 +29874,8 @@
       <c r="AV194">
         <v>0</v>
       </c>
-      <c r="AW194" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="195" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1</v>
       </c>
@@ -31329,11 +30020,8 @@
       <c r="AV195">
         <v>0</v>
       </c>
-      <c r="AW195" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="196" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>1</v>
       </c>
@@ -31478,11 +30166,8 @@
       <c r="AV196">
         <v>0</v>
       </c>
-      <c r="AW196" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="197" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1</v>
       </c>
@@ -31627,11 +30312,8 @@
       <c r="AV197">
         <v>0</v>
       </c>
-      <c r="AW197" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="198" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1</v>
       </c>
@@ -31770,11 +30452,8 @@
       <c r="AV198">
         <v>0</v>
       </c>
-      <c r="AW198" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="199" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2</v>
       </c>
@@ -31913,11 +30592,8 @@
       <c r="AV199">
         <v>0</v>
       </c>
-      <c r="AW199" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="200" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1</v>
       </c>
@@ -32062,11 +30738,8 @@
       <c r="AV200">
         <v>0</v>
       </c>
-      <c r="AW200" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="201" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2</v>
       </c>
@@ -32211,11 +30884,8 @@
       <c r="AV201">
         <v>0</v>
       </c>
-      <c r="AW201" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="202" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1</v>
       </c>
@@ -32360,11 +31030,8 @@
       <c r="AV202">
         <v>0</v>
       </c>
-      <c r="AW202" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="203" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1</v>
       </c>
@@ -32503,11 +31170,8 @@
       <c r="AV203">
         <v>0</v>
       </c>
-      <c r="AW203" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="204" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2</v>
       </c>
@@ -32652,11 +31316,8 @@
       <c r="AV204">
         <v>0</v>
       </c>
-      <c r="AW204" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="205" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>1</v>
       </c>
@@ -32801,11 +31462,8 @@
       <c r="AV205">
         <v>0</v>
       </c>
-      <c r="AW205" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="206" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>1</v>
       </c>
@@ -32950,11 +31608,8 @@
       <c r="AV206">
         <v>0</v>
       </c>
-      <c r="AW206" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="207" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1</v>
       </c>
@@ -33099,11 +31754,8 @@
       <c r="AV207">
         <v>0</v>
       </c>
-      <c r="AW207" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="208" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>1</v>
       </c>
@@ -33248,11 +31900,8 @@
       <c r="AV208">
         <v>0</v>
       </c>
-      <c r="AW208" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="209" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1</v>
       </c>
@@ -33397,11 +32046,8 @@
       <c r="AV209">
         <v>0</v>
       </c>
-      <c r="AW209" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="210" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1</v>
       </c>
@@ -33546,11 +32192,8 @@
       <c r="AV210">
         <v>0</v>
       </c>
-      <c r="AW210" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="211" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1</v>
       </c>
@@ -33695,11 +32338,8 @@
       <c r="AV211">
         <v>0</v>
       </c>
-      <c r="AW211" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="212" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>1</v>
       </c>
@@ -33844,11 +32484,8 @@
       <c r="AV212">
         <v>0</v>
       </c>
-      <c r="AW212" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="213" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>1</v>
       </c>
@@ -33993,11 +32630,8 @@
       <c r="AV213">
         <v>0</v>
       </c>
-      <c r="AW213" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="214" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>1</v>
       </c>
@@ -34142,11 +32776,8 @@
       <c r="AV214">
         <v>0</v>
       </c>
-      <c r="AW214" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="215" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>1</v>
       </c>
@@ -34291,11 +32922,8 @@
       <c r="AV215">
         <v>0</v>
       </c>
-      <c r="AW215" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="216" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2</v>
       </c>
@@ -34440,11 +33068,8 @@
       <c r="AV216">
         <v>0</v>
       </c>
-      <c r="AW216" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="217" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>1</v>
       </c>
@@ -34589,11 +33214,8 @@
       <c r="AV217">
         <v>0</v>
       </c>
-      <c r="AW217" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="218" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>1</v>
       </c>
@@ -34738,11 +33360,8 @@
       <c r="AV218">
         <v>0</v>
       </c>
-      <c r="AW218" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="219" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>1</v>
       </c>
@@ -34887,11 +33506,8 @@
       <c r="AV219">
         <v>0</v>
       </c>
-      <c r="AW219" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="220" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>1</v>
       </c>
@@ -35036,11 +33652,8 @@
       <c r="AV220">
         <v>0</v>
       </c>
-      <c r="AW220" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="221" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>1</v>
       </c>
@@ -35185,11 +33798,8 @@
       <c r="AV221">
         <v>0</v>
       </c>
-      <c r="AW221" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="222" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>1</v>
       </c>
@@ -35334,11 +33944,8 @@
       <c r="AV222">
         <v>0</v>
       </c>
-      <c r="AW222" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="223" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2</v>
       </c>
@@ -35483,11 +34090,8 @@
       <c r="AV223">
         <v>0</v>
       </c>
-      <c r="AW223" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="224" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>1</v>
       </c>
@@ -35632,11 +34236,8 @@
       <c r="AV224">
         <v>0</v>
       </c>
-      <c r="AW224" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="225" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>1</v>
       </c>
@@ -35781,11 +34382,8 @@
       <c r="AV225">
         <v>0</v>
       </c>
-      <c r="AW225" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="226" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2</v>
       </c>
@@ -35930,11 +34528,8 @@
       <c r="AV226">
         <v>0</v>
       </c>
-      <c r="AW226" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="227" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>1</v>
       </c>
@@ -36079,11 +34674,8 @@
       <c r="AV227">
         <v>0</v>
       </c>
-      <c r="AW227" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="228" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>1</v>
       </c>
@@ -36228,11 +34820,8 @@
       <c r="AV228">
         <v>0</v>
       </c>
-      <c r="AW228" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="229" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2</v>
       </c>
@@ -36377,11 +34966,8 @@
       <c r="AV229">
         <v>0</v>
       </c>
-      <c r="AW229" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="230" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2</v>
       </c>
@@ -36526,11 +35112,8 @@
       <c r="AV230">
         <v>0</v>
       </c>
-      <c r="AW230" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="231" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2</v>
       </c>
@@ -36675,11 +35258,8 @@
       <c r="AV231">
         <v>0</v>
       </c>
-      <c r="AW231" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="232" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2</v>
       </c>
@@ -36824,11 +35404,8 @@
       <c r="AV232">
         <v>0</v>
       </c>
-      <c r="AW232" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="233" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>1</v>
       </c>
@@ -36973,11 +35550,8 @@
       <c r="AV233">
         <v>0</v>
       </c>
-      <c r="AW233" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="234" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2</v>
       </c>
@@ -37122,11 +35696,8 @@
       <c r="AV234">
         <v>0</v>
       </c>
-      <c r="AW234" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="235" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>1</v>
       </c>
@@ -37271,11 +35842,8 @@
       <c r="AV235">
         <v>0</v>
       </c>
-      <c r="AW235" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="236" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2</v>
       </c>
@@ -37420,11 +35988,8 @@
       <c r="AV236">
         <v>0</v>
       </c>
-      <c r="AW236" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="237" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>1</v>
       </c>
@@ -37569,11 +36134,8 @@
       <c r="AV237">
         <v>0</v>
       </c>
-      <c r="AW237" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="238" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>1</v>
       </c>
@@ -37712,11 +36274,8 @@
       <c r="AV238">
         <v>0</v>
       </c>
-      <c r="AW238" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="239" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>1</v>
       </c>
@@ -37861,11 +36420,8 @@
       <c r="AV239">
         <v>0</v>
       </c>
-      <c r="AW239" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="240" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>2</v>
       </c>
@@ -38010,11 +36566,8 @@
       <c r="AV240">
         <v>0</v>
       </c>
-      <c r="AW240" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="241" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>1</v>
       </c>
@@ -38159,11 +36712,8 @@
       <c r="AV241">
         <v>0</v>
       </c>
-      <c r="AW241" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="242" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1</v>
       </c>
@@ -38307,9 +36857,6 @@
       </c>
       <c r="AV242">
         <v>0</v>
-      </c>
-      <c r="AW242" t="s">
-        <v>706</v>
       </c>
     </row>
   </sheetData>

--- a/filteredGoldmsi-behavioural_covariates.241.xlsx
+++ b/filteredGoldmsi-behavioural_covariates.241.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/massimolumaca/neuroMET/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2870ACB-5F8E-8E47-BFD2-6B4FE9327D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1291FF66-1177-3A4B-BFB9-5FB4066ED57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1776,7 +1775,7 @@
   <dimension ref="A1:AV242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AW1" sqref="AW1:AW1048576"/>
+      <selection activeCell="AQ32" sqref="AQ32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -36862,1947 +36861,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4C596D-A092-E44E-9D79-8BEF399EAC58}">
-  <dimension ref="A1:B241"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B241"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>4</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>3</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>6</v>
-      </c>
-      <c r="B31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>5</v>
-      </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>4</v>
-      </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>6</v>
-      </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>5</v>
-      </c>
-      <c r="B36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>6</v>
-      </c>
-      <c r="B38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>5</v>
-      </c>
-      <c r="B39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>5</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>2</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>5</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>3</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>2</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>7</v>
-      </c>
-      <c r="B48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>3</v>
-      </c>
-      <c r="B49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>5</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>5</v>
-      </c>
-      <c r="B52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>5</v>
-      </c>
-      <c r="B55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>5</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>4</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>4</v>
-      </c>
-      <c r="B62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>4</v>
-      </c>
-      <c r="B63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>1</v>
-      </c>
-      <c r="B64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>5</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>1</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>4</v>
-      </c>
-      <c r="B67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>1</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>1</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>5</v>
-      </c>
-      <c r="B72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>1</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>1</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>5</v>
-      </c>
-      <c r="B75">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>5</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>1</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>4</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>1</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>1</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>1</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>1</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>5</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>4</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>1</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>1</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>7</v>
-      </c>
-      <c r="B87">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>3</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>5</v>
-      </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>5</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>6</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>1</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>4</v>
-      </c>
-      <c r="B93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>3</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>1</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>5</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>7</v>
-      </c>
-      <c r="B97">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>4</v>
-      </c>
-      <c r="B98">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>1</v>
-      </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>5</v>
-      </c>
-      <c r="B100">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>3</v>
-      </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>4</v>
-      </c>
-      <c r="B102">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>7</v>
-      </c>
-      <c r="B103">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>5</v>
-      </c>
-      <c r="B104">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>6</v>
-      </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>6</v>
-      </c>
-      <c r="B106">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>6</v>
-      </c>
-      <c r="B107">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>6</v>
-      </c>
-      <c r="B108">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>1</v>
-      </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>1</v>
-      </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>5</v>
-      </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>3</v>
-      </c>
-      <c r="B112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>6</v>
-      </c>
-      <c r="B113">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>1</v>
-      </c>
-      <c r="B114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>1</v>
-      </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>7</v>
-      </c>
-      <c r="B116">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>1</v>
-      </c>
-      <c r="B117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>7</v>
-      </c>
-      <c r="B118">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>3</v>
-      </c>
-      <c r="B119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>5</v>
-      </c>
-      <c r="B120">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>3</v>
-      </c>
-      <c r="B121">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>3</v>
-      </c>
-      <c r="B122">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>5</v>
-      </c>
-      <c r="B123">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>2</v>
-      </c>
-      <c r="B124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>5</v>
-      </c>
-      <c r="B125">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>1</v>
-      </c>
-      <c r="B126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>1</v>
-      </c>
-      <c r="B127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>1</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>1</v>
-      </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>1</v>
-      </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>3</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>4</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>1</v>
-      </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>1</v>
-      </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>1</v>
-      </c>
-      <c r="B135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>5</v>
-      </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>1</v>
-      </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>6</v>
-      </c>
-      <c r="B138">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>4</v>
-      </c>
-      <c r="B139">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>6</v>
-      </c>
-      <c r="B140">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>4</v>
-      </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>1</v>
-      </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>5</v>
-      </c>
-      <c r="B143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>1</v>
-      </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>1</v>
-      </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>4</v>
-      </c>
-      <c r="B146">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>1</v>
-      </c>
-      <c r="B147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>1</v>
-      </c>
-      <c r="B148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>4</v>
-      </c>
-      <c r="B149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>6</v>
-      </c>
-      <c r="B150">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>3</v>
-      </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>3</v>
-      </c>
-      <c r="B152">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>6</v>
-      </c>
-      <c r="B153">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>7</v>
-      </c>
-      <c r="B154">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>1</v>
-      </c>
-      <c r="B155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>1</v>
-      </c>
-      <c r="B156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>6</v>
-      </c>
-      <c r="B157">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>1</v>
-      </c>
-      <c r="B158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>5</v>
-      </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>3</v>
-      </c>
-      <c r="B160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <v>5</v>
-      </c>
-      <c r="B161">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162">
-        <v>1</v>
-      </c>
-      <c r="B162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163">
-        <v>6</v>
-      </c>
-      <c r="B163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164">
-        <v>1</v>
-      </c>
-      <c r="B164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <v>1</v>
-      </c>
-      <c r="B165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <v>1</v>
-      </c>
-      <c r="B166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167">
-        <v>2</v>
-      </c>
-      <c r="B167">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168">
-        <v>3</v>
-      </c>
-      <c r="B168">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169">
-        <v>1</v>
-      </c>
-      <c r="B169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170">
-        <v>1</v>
-      </c>
-      <c r="B170">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171">
-        <v>2</v>
-      </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172">
-        <v>1</v>
-      </c>
-      <c r="B172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173">
-        <v>4</v>
-      </c>
-      <c r="B173">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174">
-        <v>6</v>
-      </c>
-      <c r="B174">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175">
-        <v>1</v>
-      </c>
-      <c r="B175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176">
-        <v>1</v>
-      </c>
-      <c r="B176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177">
-        <v>7</v>
-      </c>
-      <c r="B177">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178">
-        <v>4</v>
-      </c>
-      <c r="B178">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>7</v>
-      </c>
-      <c r="B179">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180">
-        <v>7</v>
-      </c>
-      <c r="B180">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181">
-        <v>5</v>
-      </c>
-      <c r="B181">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182">
-        <v>5</v>
-      </c>
-      <c r="B182">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183">
-        <v>1</v>
-      </c>
-      <c r="B183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184">
-        <v>1</v>
-      </c>
-      <c r="B184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185">
-        <v>5</v>
-      </c>
-      <c r="B185">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186">
-        <v>3</v>
-      </c>
-      <c r="B186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187">
-        <v>7</v>
-      </c>
-      <c r="B187">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188">
-        <v>7</v>
-      </c>
-      <c r="B188">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <v>1</v>
-      </c>
-      <c r="B189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>5</v>
-      </c>
-      <c r="B190">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191">
-        <v>1</v>
-      </c>
-      <c r="B191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192">
-        <v>1</v>
-      </c>
-      <c r="B192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <v>2</v>
-      </c>
-      <c r="B193">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194">
-        <v>2</v>
-      </c>
-      <c r="B194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <v>4</v>
-      </c>
-      <c r="B195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196">
-        <v>5</v>
-      </c>
-      <c r="B196">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197">
-        <v>6</v>
-      </c>
-      <c r="B197">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198">
-        <v>2</v>
-      </c>
-      <c r="B198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199">
-        <v>1</v>
-      </c>
-      <c r="B199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200">
-        <v>2</v>
-      </c>
-      <c r="B200">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201">
-        <v>1</v>
-      </c>
-      <c r="B201">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202">
-        <v>4</v>
-      </c>
-      <c r="B202">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203">
-        <v>1</v>
-      </c>
-      <c r="B203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204">
-        <v>1</v>
-      </c>
-      <c r="B204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205">
-        <v>1</v>
-      </c>
-      <c r="B205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206">
-        <v>1</v>
-      </c>
-      <c r="B206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207">
-        <v>1</v>
-      </c>
-      <c r="B207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208">
-        <v>1</v>
-      </c>
-      <c r="B208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209">
-        <v>1</v>
-      </c>
-      <c r="B209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210">
-        <v>5</v>
-      </c>
-      <c r="B210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211">
-        <v>4</v>
-      </c>
-      <c r="B211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212">
-        <v>7</v>
-      </c>
-      <c r="B212">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213">
-        <v>7</v>
-      </c>
-      <c r="B213">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214">
-        <v>7</v>
-      </c>
-      <c r="B214">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215">
-        <v>1</v>
-      </c>
-      <c r="B215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216">
-        <v>1</v>
-      </c>
-      <c r="B216">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217">
-        <v>1</v>
-      </c>
-      <c r="B217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218">
-        <v>2</v>
-      </c>
-      <c r="B218">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219">
-        <v>5</v>
-      </c>
-      <c r="B219">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220">
-        <v>2</v>
-      </c>
-      <c r="B220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221">
-        <v>6</v>
-      </c>
-      <c r="B221">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222">
-        <v>1</v>
-      </c>
-      <c r="B222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223">
-        <v>5</v>
-      </c>
-      <c r="B223">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224">
-        <v>4</v>
-      </c>
-      <c r="B224">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225">
-        <v>1</v>
-      </c>
-      <c r="B225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226">
-        <v>4</v>
-      </c>
-      <c r="B226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227">
-        <v>3</v>
-      </c>
-      <c r="B227">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228">
-        <v>4</v>
-      </c>
-      <c r="B228">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229">
-        <v>4</v>
-      </c>
-      <c r="B229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230">
-        <v>1</v>
-      </c>
-      <c r="B230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231">
-        <v>2</v>
-      </c>
-      <c r="B231">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232">
-        <v>4</v>
-      </c>
-      <c r="B232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233">
-        <v>3</v>
-      </c>
-      <c r="B233">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234">
-        <v>1</v>
-      </c>
-      <c r="B234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235">
-        <v>2</v>
-      </c>
-      <c r="B235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236">
-        <v>1</v>
-      </c>
-      <c r="B236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237">
-        <v>6</v>
-      </c>
-      <c r="B237">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238">
-        <v>3</v>
-      </c>
-      <c r="B238">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239">
-        <v>5</v>
-      </c>
-      <c r="B239">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240">
-        <v>3</v>
-      </c>
-      <c r="B240">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241">
-        <v>6</v>
-      </c>
-      <c r="B241">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>